--- a/table_designs/03_dim_product.xlsx
+++ b/table_designs/03_dim_product.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,25 +621,25 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>isbn</t>
+          <t>publish_year</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(20)</t>
+          <t>INTEGER</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr"/>
       <c r="F6" s="3" t="inlineStr"/>
       <c r="G6" s="3" t="inlineStr">
         <is>
-          <t>Mã ISBN</t>
+          <t>Năm xuất bản</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>8935086855362</t>
+          <t>2020</t>
         </is>
       </c>
     </row>
@@ -649,25 +649,29 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>publish_year</t>
+          <t>language</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>INTEGER</t>
+          <t>VARCHAR(50)</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr"/>
-      <c r="F7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>Năm xuất bản</t>
+          <t>Ngôn ngữ</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>Tiếng Việt</t>
         </is>
       </c>
     </row>
@@ -677,29 +681,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>page_count</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(50)</t>
+          <t>INTEGER</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>Tiếng Việt</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="inlineStr"/>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>Ngôn ngữ</t>
+          <t>Số trang</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Tiếng Việt</t>
+          <t>320</t>
         </is>
       </c>
     </row>
@@ -709,25 +709,25 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>page_count</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>INTEGER</t>
+          <t>DECIMAL(10,2)</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr"/>
       <c r="F9" s="3" t="inlineStr"/>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>Số trang</t>
+          <t>Trọng lượng (kg)</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0.35</t>
         </is>
       </c>
     </row>
@@ -737,25 +737,25 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>weight</t>
+          <t>dimensions</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>DECIMAL(10,2)</t>
+          <t>VARCHAR(100)</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr"/>
       <c r="F10" s="3" t="inlineStr"/>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>Trọng lượng (kg)</t>
+          <t>Kích thước (cm)</t>
         </is>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>14x20.5cm</t>
         </is>
       </c>
     </row>
@@ -765,25 +765,25 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>dimensions</t>
+          <t>image_url</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(100)</t>
+          <t>VARCHAR(500)</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr"/>
       <c r="F11" s="3" t="inlineStr"/>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>Kích thước (cm)</t>
+          <t>URL ảnh bìa sách</t>
         </is>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>14x20.5cm</t>
+          <t>https://cdn.fahasa.com/media/catalog/product/d/a/dac-nhan-tam.jpg</t>
         </is>
       </c>
     </row>
@@ -793,25 +793,25 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>book_format</t>
+          <t>product_url</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(50)</t>
+          <t>VARCHAR(500)</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr"/>
       <c r="F12" s="3" t="inlineStr"/>
       <c r="G12" s="3" t="inlineStr">
         <is>
-          <t>Hình thức (bìa cứng/mềm)</t>
+          <t>URL trang chi tiết sản phẩm</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Bìa mềm</t>
+          <t>https://fahasa.com/dac-nhan-tam.html</t>
         </is>
       </c>
     </row>
@@ -821,25 +821,33 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>image_url</t>
+          <t>effective_date</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(500)</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr"/>
-      <c r="F13" s="3" t="inlineStr"/>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>CURRENT_DATE</t>
+        </is>
+      </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>URL ảnh bìa sách</t>
+          <t>Ngày bắt đầu version này (SCD Type 2)</t>
         </is>
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>https://cdn.fahasa.com/media/catalog/product/d/a/dac-nhan-tam.jpg</t>
+          <t>2024-01-01</t>
         </is>
       </c>
     </row>
@@ -849,25 +857,33 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>product_url</t>
+          <t>expiration_date</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>VARCHAR(500)</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr"/>
-      <c r="F14" s="3" t="inlineStr"/>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>NOT NULL</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>9999-12-31</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="inlineStr">
         <is>
-          <t>URL trang chi tiết sản phẩm</t>
+          <t>Ngày kết thúc version (9999-12-31 if current)</t>
         </is>
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>https://fahasa.com/dac-nhan-tam.html</t>
+          <t>9999-12-31</t>
         </is>
       </c>
     </row>
@@ -877,25 +893,29 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>is_current</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>TEXT</t>
+          <t>BOOLEAN</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr"/>
-      <c r="F15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>Mô tả sản phẩm</t>
+          <t>Version hiện tại?</t>
         </is>
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Đắc nhân tâm của Dale Carnegie...</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
@@ -905,33 +925,33 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>effective_date</t>
+          <t>version_number</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>DATE</t>
+          <t>INTEGER</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>NOT NULL</t>
+          <t>CHECK &gt; 0</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>CURRENT_DATE</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" s="3" t="inlineStr">
         <is>
-          <t>Ngày bắt đầu version này (SCD Type 2)</t>
+          <t>Số version</t>
         </is>
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -941,33 +961,29 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>expiration_date</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>NOT NULL</t>
-        </is>
-      </c>
+          <t>TIMESTAMP</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr"/>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>9999-12-31</t>
+          <t>CURRENT_TIMESTAMP</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>Ngày kết thúc version (9999-12-31 if current)</t>
+          <t>Thời gian tạo record</t>
         </is>
       </c>
       <c r="H17" s="3" t="inlineStr">
         <is>
-          <t>9999-12-31</t>
+          <t>2024-10-16 14:30:00</t>
         </is>
       </c>
     </row>
@@ -977,123 +993,23 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>is_current</t>
+          <t>updated_at</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>BOOLEAN</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr"/>
-      <c r="F18" s="3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
+      <c r="F18" s="3" t="inlineStr"/>
       <c r="G18" s="3" t="inlineStr">
         <is>
-          <t>Version hiện tại?</t>
+          <t>Thời gian cập nhật</t>
         </is>
       </c>
       <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>version_number</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr">
-        <is>
-          <t>INTEGER</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>CHECK &gt; 0</t>
-        </is>
-      </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>Số version</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="3" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr"/>
-      <c r="D20" s="3" t="inlineStr">
-        <is>
-          <t>TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr"/>
-      <c r="F20" s="3" t="inlineStr">
-        <is>
-          <t>CURRENT_TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="G20" s="3" t="inlineStr">
-        <is>
-          <t>Thời gian tạo record</t>
-        </is>
-      </c>
-      <c r="H20" s="3" t="inlineStr">
-        <is>
-          <t>2024-10-16 14:30:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="3" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>TIMESTAMP</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr"/>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>Thời gian cập nhật</t>
-        </is>
-      </c>
-      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>2024-10-16 14:30:00</t>
         </is>
